--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf16-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf16-Fgfr2.xlsx
@@ -91,7 +91,7 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09657300000000001</v>
+        <v>0.1628603333333333</v>
       </c>
       <c r="H2">
-        <v>0.289719</v>
+        <v>0.488581</v>
       </c>
       <c r="I2">
-        <v>0.1488791629603479</v>
+        <v>0.1212602171476209</v>
       </c>
       <c r="J2">
-        <v>0.2078467214814188</v>
+        <v>0.171492704432097</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.493831</v>
+        <v>0.2858606666666667</v>
       </c>
       <c r="N2">
-        <v>1.481493</v>
+        <v>0.857582</v>
       </c>
       <c r="O2">
-        <v>0.1121895146192186</v>
+        <v>0.0687156860066334</v>
       </c>
       <c r="P2">
-        <v>0.1134277760249069</v>
+        <v>0.06932858672617494</v>
       </c>
       <c r="Q2">
-        <v>0.047690741163</v>
+        <v>0.04655536346022222</v>
       </c>
       <c r="R2">
-        <v>0.429216670467</v>
+        <v>0.4189982711419999</v>
       </c>
       <c r="S2">
-        <v>0.01670268102943698</v>
+        <v>0.008332479006612104</v>
       </c>
       <c r="T2">
-        <v>0.02357559137170558</v>
+        <v>0.01188934683212692</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09657300000000001</v>
+        <v>0.1628603333333333</v>
       </c>
       <c r="H3">
-        <v>0.289719</v>
+        <v>0.488581</v>
       </c>
       <c r="I3">
-        <v>0.1488791629603479</v>
+        <v>0.1212602171476209</v>
       </c>
       <c r="J3">
-        <v>0.2078467214814188</v>
+        <v>0.171492704432097</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>11.290081</v>
       </c>
       <c r="O3">
-        <v>0.85496773012202</v>
+        <v>0.9046431256549901</v>
       </c>
       <c r="P3">
-        <v>0.8644042050627692</v>
+        <v>0.9127119736118995</v>
       </c>
       <c r="Q3">
-        <v>0.3634389974710001</v>
+        <v>0.6129021183401111</v>
       </c>
       <c r="R3">
-        <v>3.270950977239</v>
+        <v>5.516119065061</v>
       </c>
       <c r="S3">
-        <v>0.127286880018675</v>
+        <v>0.1096972218580266</v>
       </c>
       <c r="T3">
-        <v>0.1796635800570486</v>
+        <v>0.1565234447222614</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,46 +661,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09657300000000001</v>
+        <v>0.1628603333333333</v>
       </c>
       <c r="H4">
-        <v>0.289719</v>
+        <v>0.488581</v>
       </c>
       <c r="I4">
-        <v>0.1488791629603479</v>
+        <v>0.1212602171476209</v>
       </c>
       <c r="J4">
-        <v>0.2078467214814188</v>
+        <v>0.171492704432097</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0004073333333333333</v>
+        <v>0.110331</v>
       </c>
       <c r="N4">
-        <v>0.001222</v>
+        <v>0.220662</v>
       </c>
       <c r="O4">
-        <v>9.253880164447964E-05</v>
+        <v>0.02652155835639462</v>
       </c>
       <c r="P4">
-        <v>9.356017362379453E-05</v>
+        <v>0.01783874265571248</v>
       </c>
       <c r="Q4">
-        <v>3.9337402E-05</v>
+        <v>0.017968543437</v>
       </c>
       <c r="R4">
-        <v>0.000354036618</v>
+        <v>0.107811260622</v>
       </c>
       <c r="S4">
-        <v>1.37770993301838E-05</v>
+        <v>0.003216009925389712</v>
       </c>
       <c r="T4">
-        <v>1.944617534893801E-05</v>
+        <v>0.00305921422169634</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.09657300000000001</v>
+        <v>0.1628603333333333</v>
       </c>
       <c r="H5">
-        <v>0.289719</v>
+        <v>0.488581</v>
       </c>
       <c r="I5">
-        <v>0.1488791629603479</v>
+        <v>0.1212602171476209</v>
       </c>
       <c r="J5">
-        <v>0.2078467214814188</v>
+        <v>0.171492704432097</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1441585</v>
+        <v>0.0004976666666666667</v>
       </c>
       <c r="N5">
-        <v>0.288317</v>
+        <v>0.001493</v>
       </c>
       <c r="O5">
-        <v>0.03275021645711715</v>
+        <v>0.0001196299819817856</v>
       </c>
       <c r="P5">
-        <v>0.02207445873870014</v>
+        <v>0.0001206970062130259</v>
       </c>
       <c r="Q5">
-        <v>0.0139218188205</v>
+        <v>8.105015922222222E-05</v>
       </c>
       <c r="R5">
-        <v>0.08353091292299999</v>
+        <v>0.000729451433</v>
       </c>
       <c r="S5">
-        <v>0.004875824812905813</v>
+        <v>1.45063575924773E-05</v>
       </c>
       <c r="T5">
-        <v>0.004588103877315679</v>
+        <v>2.069865601232943E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5520939999999999</v>
+        <v>1.1802045</v>
       </c>
       <c r="H6">
-        <v>1.104188</v>
+        <v>2.360409</v>
       </c>
       <c r="I6">
-        <v>0.851120837039652</v>
+        <v>0.878739782852379</v>
       </c>
       <c r="J6">
-        <v>0.7921532785185812</v>
+        <v>0.828507295567903</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.493831</v>
+        <v>0.2858606666666667</v>
       </c>
       <c r="N6">
-        <v>1.481493</v>
+        <v>0.857582</v>
       </c>
       <c r="O6">
-        <v>0.1121895146192186</v>
+        <v>0.0687156860066334</v>
       </c>
       <c r="P6">
-        <v>0.1134277760249069</v>
+        <v>0.06932858672617494</v>
       </c>
       <c r="Q6">
-        <v>0.2726411321139999</v>
+        <v>0.337374045173</v>
       </c>
       <c r="R6">
-        <v>1.635846792683999</v>
+        <v>2.024244271038</v>
       </c>
       <c r="S6">
-        <v>0.09548683358978158</v>
+        <v>0.06038320700002129</v>
       </c>
       <c r="T6">
-        <v>0.08985218465320133</v>
+        <v>0.05743923989404802</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5520939999999999</v>
+        <v>1.1802045</v>
       </c>
       <c r="H7">
-        <v>1.104188</v>
+        <v>2.360409</v>
       </c>
       <c r="I7">
-        <v>0.851120837039652</v>
+        <v>0.878739782852379</v>
       </c>
       <c r="J7">
-        <v>0.7921532785185812</v>
+        <v>0.828507295567903</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>11.290081</v>
       </c>
       <c r="O7">
-        <v>0.85496773012202</v>
+        <v>0.9046431256549901</v>
       </c>
       <c r="P7">
-        <v>0.8644042050627692</v>
+        <v>0.9127119736118995</v>
       </c>
       <c r="Q7">
-        <v>2.077728659871333</v>
+        <v>4.4415348005215</v>
       </c>
       <c r="R7">
-        <v>12.466371959228</v>
+        <v>26.649208803129</v>
       </c>
       <c r="S7">
-        <v>0.7276808501033449</v>
+        <v>0.7949459037969634</v>
       </c>
       <c r="T7">
-        <v>0.6847406250057205</v>
+        <v>0.7561885288896382</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5520939999999999</v>
+        <v>1.1802045</v>
       </c>
       <c r="H8">
-        <v>1.104188</v>
+        <v>2.360409</v>
       </c>
       <c r="I8">
-        <v>0.851120837039652</v>
+        <v>0.878739782852379</v>
       </c>
       <c r="J8">
-        <v>0.7921532785185812</v>
+        <v>0.828507295567903</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0004073333333333333</v>
+        <v>0.110331</v>
       </c>
       <c r="N8">
-        <v>0.001222</v>
+        <v>0.220662</v>
       </c>
       <c r="O8">
-        <v>9.253880164447964E-05</v>
+        <v>0.02652155835639462</v>
       </c>
       <c r="P8">
-        <v>9.356017362379453E-05</v>
+        <v>0.01783874265571248</v>
       </c>
       <c r="Q8">
-        <v>0.0002248862893333333</v>
+        <v>0.1302131426895</v>
       </c>
       <c r="R8">
-        <v>0.001349317736</v>
+        <v>0.520852570758</v>
       </c>
       <c r="S8">
-        <v>7.876170231429583E-05</v>
+        <v>0.0233055484310049</v>
       </c>
       <c r="T8">
-        <v>7.411399827485652E-05</v>
+        <v>0.01477952843401614</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5520939999999999</v>
+        <v>1.1802045</v>
       </c>
       <c r="H9">
-        <v>1.104188</v>
+        <v>2.360409</v>
       </c>
       <c r="I9">
-        <v>0.851120837039652</v>
+        <v>0.878739782852379</v>
       </c>
       <c r="J9">
-        <v>0.7921532785185812</v>
+        <v>0.828507295567903</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1441585</v>
+        <v>0.0004976666666666667</v>
       </c>
       <c r="N9">
-        <v>0.288317</v>
+        <v>0.001493</v>
       </c>
       <c r="O9">
-        <v>0.03275021645711715</v>
+        <v>0.0001196299819817856</v>
       </c>
       <c r="P9">
-        <v>0.02207445873870014</v>
+        <v>0.0001206970062130259</v>
       </c>
       <c r="Q9">
-        <v>0.07958904289899998</v>
+        <v>0.0005873484394999999</v>
       </c>
       <c r="R9">
-        <v>0.3183561715959999</v>
+        <v>0.003524090637</v>
       </c>
       <c r="S9">
-        <v>0.02787439164421134</v>
+        <v>0.0001051236243893083</v>
       </c>
       <c r="T9">
-        <v>0.01748635486138446</v>
+        <v>9.999835020069649E-05</v>
       </c>
     </row>
   </sheetData>
